--- a/biology/Botanique/Barleria_bornuensis/Barleria_bornuensis.xlsx
+++ b/biology/Botanique/Barleria_bornuensis/Barleria_bornuensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barleria bornuensis S.Moore (jatibolohi en peul) est une espèce de plantes de la famille des Acanthaceae et du genre Barleria, présente au nord du Cameroun et au Nigeria[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barleria bornuensis S.Moore (jatibolohi en peul) est une espèce de plantes de la famille des Acanthaceae et du genre Barleria, présente au nord du Cameroun et au Nigeria.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un sous-arbrisseau pouvant atteindre 1 m de hauteur[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un sous-arbrisseau pouvant atteindre 1 m de hauteur.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique bornuensis fait référence à l'ancien royaume du Bornou, à l'est du Nigeria.
 </t>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est celui de la savane, à une altitude de 300 m et au-delà[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est celui de la savane, à une altitude de 300 m et au-delà.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits sont comestibles. On utilise les tiges pour construire la charpente des toitures de cases[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont comestibles. On utilise les tiges pour construire la charpente des toitures de cases.
 </t>
         </is>
       </c>
